--- a/excel/4.xlsx
+++ b/excel/4.xlsx
@@ -985,11 +985,19 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>微生物与人类孟龙 (4周) 临班422</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>应急救援与事故调查黄启铭 (4周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -1093,7 +1101,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr"/>
@@ -1166,11 +1174,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
@@ -1188,11 +1192,7 @@
           <t>结构化学孙海清 (1-9周) 材料化学2019-1-2</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
@@ -1279,12 +1279,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1303,7 +1307,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1369,7 +1373,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1386,7 +1390,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1407,7 +1411,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1418,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1627,7 +1631,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1675,11 +1679,7 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-4周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1905,7 +1905,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1935,7 +1935,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1950,10 +1950,14 @@
         </is>
       </c>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>材料力学性能李敏 (4周) 金属材料工程2019-1-2</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2038,7 +2042,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2084,7 +2088,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2133,7 +2137,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2263,7 +2267,11 @@
           <t>岩体力学谭云亮 (1-5周) 采矿工程2019-1</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>电动汽车设计李玉善 (4周) 车辆工程2018-1-4</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
@@ -2272,7 +2280,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2337,11 +2345,15 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>岩浆岩岩石学王淞杰 (4周) 资源勘查工程2020-2</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
@@ -2402,11 +2414,7 @@
           <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -2766,7 +2774,11 @@
           <t>职业健康与安全孙路路 (1-8周) 安全工程2018-1-2</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>地球化学陈桥 (2-4周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
@@ -2862,7 +2874,11 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>安全评价吴立荣 (4周) 安全工程2019-1</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -3031,7 +3047,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3065,7 +3081,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3090,12 +3106,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3526,11 +3542,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3817,7 +3829,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -3914,7 +3926,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -3977,7 +3989,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4061,7 +4073,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -4087,7 +4099,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -4105,7 +4117,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -4191,11 +4203,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -4260,7 +4268,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4290,7 +4298,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4324,7 +4332,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5816,7 +5824,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5824,11 +5832,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6282,11 +6286,7 @@
           <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>岩石学孔凡梅,王雪 (1-4周) 水文与水资源工程2020-2</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6415,12 +6415,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6556,7 +6556,11 @@
           <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
@@ -6637,11 +6641,7 @@
           <t>地热学基础陈涛 (2-7周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
@@ -6734,11 +6734,7 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>岩浆岩岩石学王淞杰 (2-7周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>网上支付与结算王松 (1-9周) 电子商务2018-1-2</t>
@@ -7439,11 +7435,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -8465,7 +8457,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -8483,14 +8475,10 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -8504,11 +8492,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -8542,7 +8526,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -8562,13 +8550,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>

--- a/excel/4.xlsx
+++ b/excel/4.xlsx
@@ -985,11 +985,7 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>微生物与人类孟龙 (4周) 临班422</t>
-        </is>
-      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -1026,7 +1022,11 @@
           <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1201,7 +1201,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
+          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
@@ -1320,7 +1320,11 @@
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1384,7 +1388,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1429,12 +1433,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1450,12 +1454,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (4双周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (4双周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1650,7 +1654,11 @@
           <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>化工仪表及自动化牛海丽 (4周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -1680,11 +1688,7 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1910,7 +1914,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2008,7 +2012,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2024,7 +2028,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2032,7 +2036,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2210,7 +2214,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>采矿学王玉和 (1-5周) 采矿工程2019-1-2</t>
@@ -2331,7 +2339,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2492,7 +2500,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2669,11 +2677,7 @@
           <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
@@ -2683,7 +2687,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2693,7 +2697,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -3034,7 +3038,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
@@ -3085,7 +3093,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3094,7 +3106,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3106,12 +3118,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3317,7 +3329,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3355,7 +3367,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3412,11 +3424,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>计算机程序设计(VF)康宏 (1-6周) 工商管理2020-1-2</t>
@@ -3435,7 +3443,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3471,11 +3479,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3490,7 +3494,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3574,7 +3578,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3616,12 +3620,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3658,7 +3662,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (1-4周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3685,7 +3689,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (1-4周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -4011,13 +4015,13 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
+          <t>岩石学樊爱萍,杨仁超 (1-4,6-7周) 地质工程2020-2</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4047,7 +4051,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>沉积环境与沉积相杨仁超 (4-6,9周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -4112,7 +4116,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4128,17 +4132,17 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4166,7 +4170,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4195,12 +4199,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4226,7 +4230,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4298,14 +4302,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4407,7 +4411,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4542,7 +4546,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4638,7 +4642,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -4749,11 +4753,7 @@
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -5014,7 +5014,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5159,11 +5159,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5185,11 +5181,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5234,7 +5226,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-6周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5456,7 +5448,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
+          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5571,7 +5563,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>材料科学基础宋亮 (3-6周) 材料化学2019-1-2</t>
+          <t>材料科学基础宋亮 (3-4,6周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -5672,7 +5664,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5748,7 +5740,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5761,7 +5753,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5778,7 +5770,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -5836,13 +5828,13 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
+          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5851,7 +5843,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5867,7 +5859,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
+          <t>大学英语（A)(2-1)李恒 (4-6周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -6134,7 +6126,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6292,7 +6284,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6323,7 +6315,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
+          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
@@ -6364,7 +6356,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6469,7 +6461,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (3-8周) 地质工程2019-1-2</t>
+          <t>岩体力学张伟杰 (3-5,7-8周) 地质工程2019-1-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -6490,7 +6482,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6520,14 +6512,10 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -6568,7 +6556,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6719,7 +6711,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -7250,7 +7242,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7424,14 +7416,10 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -7459,19 +7447,19 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8535,7 +8523,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8547,7 +8535,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8568,12 +8556,12 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8584,7 +8572,11 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr">
         <is>
           <t>地球物理勘探李建平 (4-6周) 资源勘查工程（海洋矿产资源方向）2018</t>

--- a/excel/4.xlsx
+++ b/excel/4.xlsx
@@ -812,7 +812,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -938,7 +938,11 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>现代生物技术概论李慧娟 (4周) 临班268</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
     </row>
@@ -966,7 +970,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1083,7 +1087,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1126,7 +1130,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+          <t>海图制图王瑞富 (1-7周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1148,22 +1152,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1185,14 +1189,14 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计秦忠诚 (1-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1222,7 +1226,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计于凤海 (4-5周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1239,7 +1243,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
+          <t>采煤工艺学栾恒杰 (1,3-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1279,13 +1283,17 @@
           <t>高级财务会计韩沚清 (1-9周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>海洋生物技术李慧娟 (4周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1349,21 +1357,17 @@
           <t>税务会计与税务筹划郭令秀 (1-8周) 会计学(辅修)2019</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
-        </is>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1504,7 +1508,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1592,7 +1596,11 @@
           <t>结晶学与矿物学杜龙,毛光周 (1-4周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
@@ -1631,7 +1639,11 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>矿相学郑雪 (3-10周) 资源勘查工程2020-1-3</t>
@@ -1689,7 +1701,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
+          <t>环境影响评价曹晓强 (1-4,6周) 环境工程2019-1-2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1704,7 +1716,11 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>化工原理（B）刘迪 (4周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法刘健辰 (1-12周) 遥感科学与技术2019-1</t>
@@ -1734,7 +1750,11 @@
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>化工原理（B）刘迪 (4周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
@@ -1937,12 +1957,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2039,7 +2059,11 @@
           <t>生物化学李慧娟 (3-15,17-19周) 生物工程2020-1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>化工安全与环保徐冬梅 (4周) 化学工程与工艺2019-3</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>化工设计与制图王志亮 (2-13周) 化学工程与工艺2019-1-3</t>
@@ -2109,11 +2133,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2164,11 +2184,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2218,22 +2234,14 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2253,23 +2261,19 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>国际企业管理高军红 (4-6周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2315,7 +2319,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2342,7 +2346,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2350,7 +2354,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2414,12 +2418,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2432,7 +2436,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2518,7 +2522,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2599,7 +2603,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>仪器分析肖新峰 (1-4周) 环境工程2020-1-2</t>
+          <t>仪器分析肖新峰 (1,3-4周) 环境工程2020-1-2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2692,7 +2696,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
+          <t>采煤工艺学栾恒杰 (1,3-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2736,7 +2740,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2813,7 +2817,7 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
-          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+          <t>应用统计学（C）张杰 (1,3-7周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2910,7 +2914,7 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3021,7 +3025,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3038,7 +3042,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3071,12 +3075,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+          <t>计算方法江守波 (1,3-6周) 机械电子工程2020-1-2</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3121,7 +3125,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3139,7 +3143,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3168,7 +3172,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3257,7 +3261,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3300,11 +3304,7 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3322,11 +3322,7 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3348,11 +3344,7 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3388,7 +3380,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3415,12 +3407,12 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
@@ -3478,15 +3470,11 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
+          <t>采煤工艺学栾恒杰 (4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3500,19 +3488,15 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -3723,7 +3707,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3867,7 +3851,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学王平丽 (2-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3943,7 +3927,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4021,11 +4005,7 @@
           <t>J14-324室</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>机械设计(A)李桂莉 (1-9,14-15周) 材料成型及控制工程2019-2</t>
@@ -4068,7 +4048,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -4110,20 +4094,12 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>机械制造技术基础(B)黄为民 (1-9,14-15双周) 材料成型及控制工程2019-1-2</t>
@@ -4152,12 +4128,12 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>机械制造技术基础(B)黄为民 (1-9,14-15双周) 材料成型及控制工程2019-1-2</t>
+          <t>机械制造技术基础(B)黄为民 (4,6,8,14双周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+          <t>计算方法李贺 (1,3-6周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -4194,7 +4170,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4225,12 +4201,12 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1,3-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -4268,7 +4244,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4285,7 +4261,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+          <t>GNSS测量与数据处理苏醒 (1-4,6,9周) 遥感科学与技术2019-2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4315,7 +4291,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -4358,11 +4334,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>矿井通风与安全程卫民 (1-4周) 采矿工程2019-1-2</t>
@@ -4399,7 +4371,7 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
+          <t>采煤工艺学刘奇 (1,3-4周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4623,7 +4595,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+          <t>金属热处理工艺学王淑峰 (1,3-7周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4643,7 +4615,11 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>有机化学黄小文 (4周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
@@ -4727,12 +4703,12 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -4963,7 +4939,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
@@ -5036,7 +5012,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+          <t>材料分析测试技术迟静 (1,3-6周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5090,7 +5066,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -5129,7 +5105,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5220,7 +5196,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
@@ -5255,7 +5235,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5295,7 +5275,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+          <t>煤化工工艺学梁鹏 (1-5,7-8周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U54" t="inlineStr"/>
@@ -5307,7 +5287,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5357,7 +5337,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>质量管理与可靠性孙友霞 (2-8周) 工业工程2019-1-2</t>
+          <t>质量管理与可靠性孙友霞 (3-8周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -5433,12 +5413,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5549,7 +5529,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
+          <t>数控技术于涛 (1-5,7周) 机械设计制造及其自动化2019-3-5</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -5627,7 +5607,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
@@ -5995,7 +5975,7 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -6119,7 +6099,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -6338,7 +6318,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6376,7 +6356,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6449,7 +6429,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -6457,7 +6437,7 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -6599,7 +6579,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -6641,7 +6621,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -6654,7 +6634,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -6676,7 +6656,7 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6689,7 +6669,7 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
@@ -6807,12 +6787,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -6847,7 +6827,7 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1,3-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -6892,7 +6872,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7104,7 +7084,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -7416,16 +7396,8 @@
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -7737,7 +7709,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -7835,12 +7807,12 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -8248,7 +8220,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -8262,18 +8234,18 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
@@ -8289,7 +8261,7 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3 地下工程测量学景冬 (4-5周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
@@ -8397,15 +8369,23 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
@@ -8584,7 +8564,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
